--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,14 +526,189 @@
           <t>동명사 / to 부정사</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20221219</t>
-        </is>
+      <c r="D4" t="n">
+        <v>20221219</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>14시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>risk : 무릅쓰다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>object to 동명사 : ~을 반대하다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>appreciate : 감사하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>be cut out to 동사원형 : ~에 적임이다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>be cut out to 동사원형 : ~에 적임이다</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>If ＋주어＋동사의 과거/were~, 주어＋would / should / could / might ＋동사원형~.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>가정법 과거(현재 사실의 반대) : ~라면</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>가정법 과거(현재 사실의 반대) : ~라면, ~할 텐데</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>a multitude of + 가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20221220</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10시 45분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,14 +701,1010 @@
           <t>가산명사</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20221220</t>
-        </is>
+      <c r="D11" t="n">
+        <v>20221220</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>10시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(a) plenty of + 가산명사 / 불가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>가산명사 / 불가산명사</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>every + 기수 + 복수명사 : 매 ~ 마다(부사구)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>단수명사</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>복수명사</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>준사역동사 (목적격보어) ; help. get</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>동명사 X. 동사원형 O. to 동사원형 O. 과거분사(수동태) O</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>a great many + 가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>과거분사(수동태)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>be susceptible to</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>불안하다</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>remember + -ing</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(과거) ~했던 것을 잊다</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>(과거) ~했던 것을 기억하다</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>no less than ＝as much as</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>많아야</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>~씩이나</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>agree</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>make away</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>배웅하다. 쫓아내다. 이기다</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>도망가다</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>late</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>최근에</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>늦게</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>자유롭게</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>무료로</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>glad</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>dear</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>몹시</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>비싸게</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>a multitude of + 가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>가산명사 / 불가산명사</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ill</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>a great[large] amount of + 불가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>가산명사 / 불가산명사</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sooner or later</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>다소</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>머지않아</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>few + 가산명사 : 거의없는 ~</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>가산명사 / 불가산명사</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>be suppressive</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>의심을 받다</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>억압하다</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>If it were not for：~이 없다면</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>가정법 과거 / 가정법 과거완료</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>가정법 과거</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>try＋ to V</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>시험 삼아 ~해보다</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>~하기 위해 노력하다</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>freely</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>무료로</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>자유롭게</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>warn</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4형식</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>사역동사 (목적격보어) ; have</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>동명사 X. 동사원형 O. to 동사원형 X. 과거분사(수동태) O</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>동명사 O. 동사원형 O. to 동사원형 X. 과거분사(수동태) O</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>loath</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>hold one's tongue</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>기억이 날 듯 말듯하다</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>묵묵부답 하다</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>try＋-ing</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>~하기 위해 노력하다</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>시험 삼아 ~해보다</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>a great[large] quantity of + 불가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>22시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>07시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>highly</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>높이</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>크게, 대단히</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>admit</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>07시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>준사역동사 (목적격보어) ; help. get</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>동명사 O. 동사원형 O. to 동사원형 X. 과거분사(수동태) O</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>동명사 X. 동사원형 O. to 동사원형 O. 과거분사(수동태) O</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>07시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>a great[large] amount of + 불가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>가산명사 / 불가산명사</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>07시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>no more than ＝as little as</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>~ 이상</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>~밖에</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>곧</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>짧게</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>숫자 + 단위명사s + 형용사 + 명사</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>단위명사</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>단위명사s</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>자유롭게</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>무료로</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>07시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>no less than ＝as much as</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>머지않아</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>~씩이나</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>07시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>If ＋주어＋had ＋p.p. ~. 주어＋would/ should/could/might have ＋p.p. ~.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>가정법 과거(현재 사실의 반대) : ~라면. ~할 텐데</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>가정법 과거완료(과거 사실의 반대) : ~했다면. ~했을 텐데</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>07시 54분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,14 +1697,664 @@
           <t>가정법 과거완료(과거 사실의 반대) : ~했다면. ~했을 텐데</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>07시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>자유롭게</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>무료로</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>warn</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>highly</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>높이</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>크게, 대단히</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>숫자 + 단위명사s + 형용사 + 명사</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>단위명사</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>단위명사s</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>no less than ＝as much as</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>~밖에</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>~씩이나</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>warn</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>(a) plenty of + 가산명사 / 불가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>가산명사 / 불가산명사</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>a great[large] amount of + 불가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>가산명사 / 불가산명사</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>learn : 배우다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>(미래) If S should/were to 동사원형. S 조동사 현재/과거 동사원형</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>will/can + 동사원형</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>조동사 현재/과거 동사원형</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>a multitude of + 가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>object to 동명사 : ~을 반대하다</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>cause</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>keep 목적어 from 동명사</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>배제하다</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>막다</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>continue : 계속하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>No sooner had S pp than S 과거시제</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>과거완료</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>과거시제</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>much + 불가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>agree</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4형식</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>recommend : 추천하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>have an objection to 동명사 : ~을 반대하다</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>look forward to + -ing</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>~하는 것에 공헌하다</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>~하기를 고대하다</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>resort to</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>~에 기대다. 의지하다</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>~에 기대다, 의지하다</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>admit : 인정하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>a great number of + 가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>shortly</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>짧게</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>곧, 간략하게</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>20221222</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>07시 54분</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2347,14 +2347,956 @@
           <t>곧, 간략하게</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>20221222</t>
-        </is>
+      <c r="D77" t="n">
+        <v>20221222</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>recommend : 추천하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>22시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>shortly</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>짧게</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>곧, 간략하게</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>admit : 인정하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>highly</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>크게</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>크게, 대단히</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>22시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>continue : 계속하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>resort to</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>~에 기대다. 의지하다</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>~에 기대다, 의지하다</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>22시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>shortly</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>짧게</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>곧, 간략하게</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>22시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>disappear：사라지다</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>22시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>subject A to 동명사 : A가 ~하도록 복종시키다</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>22시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>consider : 고려하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>learned</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>유망한</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>박식한</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>22시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>hold one's tongue</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>기억이 날 듯 말듯하다</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>묵묵부답 하다</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>22시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>be accustomed to 동명사 : ~하는 것에 익숙하다</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>come near to 동명사 : 하마터면 ~할 뻔하다</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>prefer : 좋아하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>22시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>propose : 작정이다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>late</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>최근에</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>늦게</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>command : 명령하다</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>22시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>4형식</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>22시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>(현재) If S R(-s/-es). S will/can + 동사원형</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>조동사 현재/과거 동사원형</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>R(-s/-es)</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>aware</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>22시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>be susceptible to</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>23시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hardly(Scarcely) had S pp before(when) S 과거시제</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>과거완료</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>과거시제</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>23시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>pay attention to 동명사 : ~에 주의를 기울이다</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>23시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>see off</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>~에 기대다</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>배웅하다. 쫓아내다. 이기다</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>a large number of + 가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>23시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>qualified</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>노련한</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>적격의</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>23시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>make over : 양도하다. 고치다</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>23시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>no more ＝no longer ＝not ~ any more＝not ~ any longer</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>많아야</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>더 이상 ~가 아닌</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>23시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>be engaged in : ~와 약혼하다. ~에 종사하다</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Upon(on) 동명사. S 과거시제</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>과거동사</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>과거시제</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>23시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>belong to：~에 속하다</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>the rest of 단수명사 + 단수동사</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>단수동사</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>23시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>make a slip of the tongue</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>기억이 날 듯 말듯하다</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>말실수하다</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20221223</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>fain</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>20221223</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23시 21분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3289,14 +3289,1039 @@
           <t>후치수식 형용사 (전치수식X)</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>20221223</t>
-        </is>
+      <c r="D115" t="n">
+        <v>20221223</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>23시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>recommend : 추천하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>disappear：사라지다</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>no less than ＝as much as</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>~밖에</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>~씩이나</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>come near to 동명사 : 하마터면 ~할 뻔하다</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>a large number of + 가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>continue : 계속하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>consider : 고려하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>hold one's tongue</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>기억이 날 듯 말듯하다</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>묵묵부답 하다</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>shortly</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>짧게</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>곧, 간략하게</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>make over : 양도하다. 고치다</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>21시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>a great[large] amount of + 불가산명사 : 많은 ~</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>21시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>21시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>fain</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>21시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>곧 / 간략하게</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>짧게</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>begin : 시작하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>fill out：채우다</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>up with</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>주어 ＋ be동사 ＋ exoected + to 동사원형</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>21시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>be convinced of / that  : ~을 확신하다</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>of / that</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>21시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>leading</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>선진의</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>일류의</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>decide</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>21시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>be about to 동사원형</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>~할 준비가 되어 있다</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>막 ~하려 하다</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>21시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>every 단수명사 : 모든 ~ (명사구)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>복수명사</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>단수명사</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>desire : 바라다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>request : 요청하다</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>like : 좋아하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>in order to 동사원형 : ~하기 위해</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">satisfy : ~을 만족시키다 </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>주어 ＋ be동사 ＋ ordered + to 동사원형</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>choose</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>21시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>부정문, much less ＋명사</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>~은 말할 것도 없이 ~하다</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>~은 말할 것도 없이 ~하지 않다</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>make up with : ~와 화해하다</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>up with</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>21시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>appreciate : 감사하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>be willing to 동사원형 : 기꺼이 ~하다</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>consumer-centered</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>감정 중심의</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>소비자 중심의</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>22시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>shortly</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>짧게</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>곧 / 간략하게</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>22시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>continue : 계속하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>23시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>no less than ＝as much as</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>~ 이상</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>~씩이나</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>20221224</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>23시 06분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4314,14 +4314,339 @@
           <t>~씩이나</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>20221224</t>
-        </is>
+      <c r="D156" t="n">
+        <v>20221224</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>23시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>be convinced of / that  : ~을 확신하다</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>of / that</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>appreciate : 감사하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Do you have the time?</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>시간 있어요?</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>몇시니?</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>choose</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>fain</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>The number of + 복수명사 + 단수동사</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>복수동사</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>단수동사</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>A be devoted to 동명사 : A가 ~하는 것에 헌신하다</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>07시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>appear / seem：~로 보이다</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>consider : 고려하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>07시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>(대과거) If S 과거완료, S 조동사 과거 + 현재완료</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>과거시제</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>조동사 과거 + 현재완료</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>07시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>look, smell, taste, sound, feel (보어)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>형용사 / like ＋명사</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>07시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>hope</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>07시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>(혼합) If S 과거완료, S 조동사 과거 + 동사원형 (now)</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>R(-s/-es)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>조동사 과거 + 동사원형 (now)</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>20221227</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>07시 51분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4639,14 +4639,289 @@
           <t>조동사 과거 + 동사원형 (now)</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>20221227</t>
-        </is>
+      <c r="D169" t="n">
+        <v>20221227</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>07시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>He had not gone far before he came to his destination.</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>20시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Hardly had he seen me than he ran away</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>20시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>주어 + had + no sooner + 과거분사 ~ than 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>주어 + had + 부정어 + 과거분사 ~ far[long] when[before] 주어 + 과거동사 ~</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>조만간 ~하게 될 것이다</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>20시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>주어 + had + 부정어 + 과거분사 ~ far[long] when[before] 주어 + 과거동사 ~ : ~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>when[before]</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>20시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>consider : 고려하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>21시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>It will be long before 주어 + 현재동사 ~ : 아직 ~하려면 멀었다</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>과거동사</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>현재동사</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Hardly[Scarcely] + had + 주어 + 과거분사 ~ when[before] 주어 + 과거동사 ~ : ~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>had + no sooner + 과거분사</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>had + 주어 + 과거분사</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>21시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>hope : 희망하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>동명사 / to 부정사</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>21시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>주어 + had + 부정어 + 과거분사 ~ far[long] when[before] 주어 + 과거동사 ~</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>조만간 ~하게 될 것이다</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20221228</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>21시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>주어 + had + 부정어 + 과거분사 ~ far[long] when[before] 주어 + 과거동사 ~ : ~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>when[before]</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>20221228</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4914,14 +4914,214 @@
           <t>when[before]</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>20221228</t>
-        </is>
+      <c r="D180" t="n">
+        <v>20221228</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>consider : 고려하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>동명사, to 부정사</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>10시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>주어 + had + 부정어 + 과거분사 ~ far[long] when[before] 주어 + 과거동사 ~ : ~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>현재동사</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>과거동사</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>11시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>by + -ing</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>~하기 위해</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>~함으로써</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>11시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>used to 동사원형 : ~하곤 했다</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>consider</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>11시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>consider : 고려하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>11시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>be apt to 동사원형</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>막 ~하려 하다</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>~하는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20221229</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>be suspensive</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>의심을 받다</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>불안하다, 확실하지 않다</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>20221229</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5114,14 +5114,689 @@
           <t>불안하다, 확실하지 않다</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>20221229</t>
-        </is>
+      <c r="D188" t="n">
+        <v>20221229</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
           <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>have + no + choice + but + to 부정사 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>18시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>No less than 1,000 people came : 1,000명이나 되는 사람들이 왔다</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>just</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>19시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>as many[much] as</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>많아 봤자, 기껏해야</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>19시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>많아 봤자, 기껏해야</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>19시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>may well 동사원형</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>~하는 게 더 낫다</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>~하는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>19시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>He had no other alternative but to wait : 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>waiting</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>to wait</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>19시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>19시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>not so much A as B : A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>19시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>He has not less than 20 dollars now : 그는 지금 적어도 20달러를 가지고 있다</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>just</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>19시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>may well 동사원형</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>~하는 게 더 낫다</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>~하는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>19시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>19시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>No less than 1,000 people came : 1,000명이나 되는 사람들이 왔다</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>just</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>19시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>not A so much as B : A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>20시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>He was not so much a statesman as a scholar : 그는 정치인보다는 학자에 가까웠다</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>20시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>A is not B any more than C is D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>20시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>cannot help + ~ing</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>20시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>may well 동사원형</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>~하는 게 더 낫다</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>~하는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>20시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">less A than B </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>20시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>He is neither tall or small</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>nor</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>20시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>You may as well believe it : 당신이 그것을 믿는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O </t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>X | as well -&gt; well</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>20시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>I prefer to go jogging rather than (to) sleep inside : 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>rather than</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>20시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>may well 동사원형 -&gt; might well : ~하는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>공손한 표현</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>과거 시제 사용</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>20시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B rather than A </t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>20시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>have + no + choice + but + to 부정사 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>20시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>A is not B just as C is not D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>just</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>20시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>may as well 동사원형 -&gt; might as well : ~하는 게 더 낫다</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>과거 시제 사용</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>공손한 표현</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20221230</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>20시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>no less than</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>20221230</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>20시 42분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5789,14 +5789,1460 @@
           <t>~씩이나, ~에 못지 않게</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>20221230</t>
-        </is>
+      <c r="D215" t="n">
+        <v>20221230</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>20시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>A is no less B than C is D : A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>just</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>19시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>He was not so much a statesman as a scholar : 그는 정치인보다는 학자에 가까웠다</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>19시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>주어 + cannot + 동사원형 + too …</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>19시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">would rather A(동사원형) than B(동사원형) </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>19시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>He could not help but wait : 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>waiting</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>19시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>He is neither tall or small</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>nor</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>19시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>He was not so much a statesman as a scholar : 그는 정치인보다는 학자에 가까웠다</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>19시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Only after the next morning did I know the fact : 오늘 아침이 되기 전까지는 나는 그 사실을 알지 못했다</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>I knew the fact</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>did I know the fact</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>19시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>A is not B any more than C is D : A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>19시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>not so much A as B : A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>19시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>많아 봤자, 기껏해야</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>19시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>no less than</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>19시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>A is no less B than C is D: A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">less A than B </t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>A 할 때마다 B한다</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>많아 봤자, 기껏해야</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>19시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>no less than</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>19시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>19시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A is no less B than C is D </t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>19시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>He could not help but wait : 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>to wait</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>19시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">would rather A(동사원형) than B(동사원형) </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B보다는 A하겠다 </t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>20시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>A is not B any more than C is D: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>20시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>may well 동사원형</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>~하는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>20시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>The gentleman neither smokes nor drinks : 그 신사는 담배를 피우지도 술을 마시지도 않는다</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>nor</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>20시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A is not B just as C is not D </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>20시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>no more than : ~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>at most</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>20시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">It is a matter of course that he is proud of his son </t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>…조차도 아닌</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>~하는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>20시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>cannot choose but 동사원형 ~ : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>20시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>The victim is no less than 6 years old : 희생자는 겨우 6살이다</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O </t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>X | less -&gt; more</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>20시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>no less than : ~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>at least</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>as many[much] as</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>20시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>A is no less B than C is D: A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>20시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>not[never] so much as 동사</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>…조차도 아닌</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>20시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>When we meet, we always quarrel : 우리는 만나기만 하면 싸운다</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Whenever</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>When</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>20시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>no less than</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>많아 봤자, 기껏해야</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>20시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>He could not help but wait: 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>waiting</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>20시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>no more than: ~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>at least</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>20시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>no less than: ~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>as many[much] as</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>20시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>would rather A(동사원형) than B(동사원형)</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>20시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>no more than: ~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>as many[much] as</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>22시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>no less than</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>no more than: ~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>as many[much] as</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>22시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>A is not B any more than C is D: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>22시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>no more than: ~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>at most</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>22시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>He could not help but wait: 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>to wait</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>22시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>no more than</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>no less than</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>cannot help but 동사원형 ~</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>22시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>아직 ~하려면 멀었다</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>22시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>He could not help waiting: 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>waiting</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>22시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>cannot help 동명사: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>22시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>not so much A as B</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>22시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>A is not B just as C is not D: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>just</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>22시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>not so much A as B: A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>22시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>not so much A as B: A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>22시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>cannot help but 동사원형 ~</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>~하는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>22시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>not so much A as B: A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>22시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>He could not but wait: 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>waiting</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>20221231</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>22시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>cannot help 동명사: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>20221231</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>22시 59분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7235,14 +7235,464 @@
           <t>동명사</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>20221231</t>
-        </is>
+      <c r="D273" t="n">
+        <v>20221231</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
           <t>22시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>주어 cannot 동사원형 too …</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>…조차도 아닌</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>10시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>I would rather[sooner] go jogging than sleep inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>10시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>prefer A(동명사) to B(동명사): B보다 A를 더 선호하다</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>to 부정사</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>10시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>I may[might] as well going to the store now</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O </t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>X | going -&gt; go</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>10시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>10시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>He could not help waiting: 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>waiting</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>10시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>not so much A as B: A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>10시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>be sentenced to</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>~하는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>~의 형을 받다</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>10시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>cannot have p.p</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>~했어야만 했다</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>~했을 리가 없다</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>10시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>cannot have p.p</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>~할 필요는 없었다</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>~했을 리가 없다</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>10시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>He has no more than five apples: 그는 겨우 사과 다섯 개밖에 갖고 있지 않다</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>10시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>propose: 제안하다</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>목적어로 to 부정사 사용</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>10시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>postpone</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>목적격 보어 to 부정사</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>10시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>I prefer to go jogging rather than (to) sleep inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>rather than</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>11시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>11시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>I prefer to go jogging rather than (to) sleep inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>rather than</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>18시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>(현재) If S R(-s/-es), S will/can 동사원형</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>조동사 현재/과거 동사원형</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>will/can 동사원형</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>18시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>20230103</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>18시 27분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7685,14 +7685,214 @@
           <t>~하자마자 …하다</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>20230103</t>
-        </is>
+      <c r="D291" t="n">
+        <v>20230103</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
           <t>18시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>amiss</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>19시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>dearly</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>비싸게</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>몹시</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>19시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>appear, seem：~로 보이다</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>19시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>contact N</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>~와의 접촉 (명사)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>~와 접촉하다 (동사)</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>21시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>(과거) If S 과거동사, S 조동사 과거 동사원형</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>should/were to R</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>조동사 과거 동사원형</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>21시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>(현재) If S R(-s/-es), S will/can 동사원형</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>will/can 동사원형</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>R(-s/-es)</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>…조차도 못하는</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>21시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>A be preferable to 동명사: A는 ~하는 것보다 낫다</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>20230105</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>21시 20분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E299"/>
+  <dimension ref="A1:E359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7885,14 +7885,1514 @@
           <t>동명사</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>20230105</t>
-        </is>
+      <c r="D299" t="n">
+        <v>20230105</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
           <t>21시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>suppose 목적어 to R (be supposed to)</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>주제, 국민, 백성, 대상, 피실험자, (~하기 쉽다. ~에 영향을 받기 쉽다)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>가정하다 (~할 예정이다, ~해야 한다)</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>14시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>fall : ~한 상태로 빠지다 (2형식) 과거형</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>felled</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>fell</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>14시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>fall : 넘어지다 (자동사) 과거형</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>fallen</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>fell</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>14시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>(과거) If S 과거동사, S 조동사 과거 동사원형</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>과거시제</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>조동사 과거 동사원형</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>조만간 ~하게 될 것이다</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>be cut out to 동사원형: ~에 적임이다</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>14시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>not may well 동사원형: ~하지 않는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>X : may well not 동사원형</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>be suppressive</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>의심을 받다</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>억압하다</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>14시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>14시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>offer</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>목적어로 to부정사 사용</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>contribute to 동명사: ~하는 것에 기여하다</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>glad</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>of 무관사 명사</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>hold one's tongue</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>기억이 날 듯 말듯하다</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>묵묵부답 하다</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>quit: 멈추다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>be likely to 동사원형: ~할 것 같다</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>A is no less B than C is D: A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>15시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>He has no more than five apples: 그는 겨우 사과 다섯 개밖에 갖고 있지 않다</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>ㅣ종료</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>15시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>15시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>fell : 넘어뜨리다 (타동사) 과거형</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>fell</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>felled</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>15시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>fell : 넘어뜨리다 (타동사) 현재형</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>fall</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>fell</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>fall : ~한 상태로 빠지다 (2형식) 과거완료</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>felled</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>fallen</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>warn</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>15시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>a multitude of 가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>He didn't go far before he came to his destination</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>15시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>fall : ~한 상태로 빠지다 (2형식) 과거형</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>felled</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>fell</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>주어 cannot 동사원형 too …</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>…조차도 아닌</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>15시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>attribute A to B</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>A가 B 못하도록 설득하다</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>A를 B의 탓으로 돌리다</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>15시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>배수사* as 형용사/ 부사 원급 as 비교 대상：~만큼의 몇 배 ~</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>형용사/ 부사 비교급</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>형용사/ 부사 원급</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>15시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>fall : ~한 상태로 빠지다 (2형식) 과거형</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>felled</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>fell</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>15시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>fall : ~한 상태로 빠지다 (2형식) 과거완료</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>fell</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>fallen</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>15시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>suppose 목적어 to R (be supposed to)</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>제안하다</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>가정하다 (~할 예정이다, ~해야 한다)</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>15시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>주어 cannot 동사원형 too …</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>15시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>fill out：채우다</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>15시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>be tied to 동명사: ~하는 것과 관련되다</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>15시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>suggest: 제안하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>risk: 무릅쓰다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>15시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>cannot help but 동사원형: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>15시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>to make matters worse</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>~하기 위해</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>설상가상으로</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>in addition to 동명사: ~이외에도, ~뿐만 아니라</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>16시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~: ~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>had no sooner 과거분사</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>had hardly[scarcely] 과거분사</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>You may as well believe it: 당신이 그것을 믿는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O </t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>X : as well -&gt; well</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>16시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>admit: 인정하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>16시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>주어 cannot 동사원형 too …</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>…조차도 아닌</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>17시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>be worthwhile 동명사/to부정사</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>동명사/to부정사</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>17시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>주어 cannot 동사원형 too …</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>17시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>in 동명사</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>~함으로써</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>~할 때</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>17시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>feel like 동명사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>17시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>It is worth being read this book carefully</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>X: 형용사 worth는 능동태 동명사만 목적어로 취한다</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>17시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>~을 찬성하다</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>~을 허가하다, ~을 좋다고 인정하다</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>17시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>fall : ~한 상태로 빠지다 (2형식) 과거완료</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>felled</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>fallen</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>suppose 목적어 to R (be supposed to)</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>제안하다</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>가정하다 (~할 예정이다, ~해야 한다)</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>17시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>be above 동명사 : 결코 ~할 사람이 아니다</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>it is no use 동명사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>fill out：채우다</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>admit: 인정하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>17시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~: ~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>had no sooner 과거분사</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>had hardly[scarcely] 과거분사</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>He has read not more than 2 books this year: 그는 올해 기껏해야 책 2권을 읽었다</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>20230113</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>We never meet but we quarrel: 우리는 만나기만 하면 싸운다</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>20230113</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>17시 53분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E359"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9385,14 +9385,564 @@
           <t>but</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>20230113</t>
-        </is>
+      <c r="D359" t="n">
+        <v>20230113</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
           <t>17시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>be worthwhile 동명사/to부정사</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>동명사/to부정사</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>12시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>~을 찬성하다</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>~을 허가하다, ~을 좋다고 인정하다</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>12시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>12시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>would[should] like to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>12시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>feel inclined to부정사</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>~하기를 고대하다</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>12시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>it is useless to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>12시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>비교급 than any other 단수명사</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>복수명사</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>단수명사</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>it is of no use to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>We never meet but we quarrel: 우리는 만나기만 하면 싸운다</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>without</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>12시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>it is no use 동명사</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>~하는 것에 익숙하다</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>12시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>as many[much] as</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>12시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>A number of 복수명사 복수동사</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>단수명사</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>복수명사</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>12시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>일류의</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>고도로 발달한</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>12시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>He has no more than five apples: 그는 겨우 사과 다섯 개밖에 갖고 있지 않다</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>just</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>I prefer going jogging to sleeping inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>going</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>see off</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>보내다, 발송하다</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>배웅하다, 쫓아내다, 이기다</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>expect: 기대하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>interest: ~을 재미있게 하다</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>not less than: 적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>as many[much] as</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>at least</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>12시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>be on the point of 동명사</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>하마터면 ~할 뻔하다</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>막 ~하려 하다</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>12시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>would[should] like to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>20230114</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>20230114</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>13시 07분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9935,14 +9935,90 @@
           <t>to부정사</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>20230114</t>
-        </is>
+      <c r="D381" t="n">
+        <v>20230114</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
           <t>13시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>cannot help 동명사 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>20230116</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>22시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>for : ~하는 동안에</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">특정한 기간 </t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>불특정한 기간 : for(전치사)three days</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>20230116</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>22시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>We don't make a noise lest we should wake the baby
+: 우리는 아이를 깨우지 않기 위해 소리를 내지 않는다</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>O: lest ~ should는 부정의 의미가 있으므로 이중 부정으로 쓰지 않도록 주의한다</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>20230116</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>23시 00분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E384"/>
+  <dimension ref="A1:E430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10011,14 +10011,1164 @@
           <t>O: lest ~ should는 부정의 의미가 있으므로 이중 부정으로 쓰지 않도록 주의한다</t>
         </is>
       </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>20230116</t>
-        </is>
+      <c r="D384" t="n">
+        <v>20230116</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
           <t>23시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>come to 명사</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>~하게 되다</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>~에 이르다, 도달하다</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>12시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>may as well 동사원형 as 동사원형 : …하느니 차라리 ~하는 게 낫다</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>12시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>cannot but 동사원형 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>12시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>12시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>cannot help 동명사 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>cannot help but 동사원형 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>12시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>now that (접속사)</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>~라는 점에서, ~이므로</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>~이므로, ~이기 때문에</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>12시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>12시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>it is no use 동명사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>12시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>feel like 동명사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>12시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>cannot help but 동사원형 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>12시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>cannot but 동사원형 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>12시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>it is useless to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>12시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>it is of no use to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>12시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>4형식</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>목적어로 to부정사 사용</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>not a[no] little 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>13시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>You cannot help but to wake up from your sleep: 너는 잠에서 깨어나지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O </t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>X : to wake -&gt; wake</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>risk: 무릅쓰다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>13시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>be above 동명사</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>막 ~하려 하다</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>결코 ~할 사람이 아니다</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>13시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>He could not help but wait: 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>to wait</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>13시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>He is no taller than she is: 그는 그녀만큼 키가 크지 않다</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>그녀는 키가 크지만 그는 키가 작다</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>둘다 키가 작다</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>13시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>it is useless to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>13시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>it is no use 동명사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>it is no use 동명사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>13시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>A is no less B than C is D: A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>13시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>A is not B any more than C is D: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>13시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>in addition to 동명사: ~이외에도, ~뿐만 아니라</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>13시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>I prefer to go jogging rather than (to) sleep inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>to go</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>13시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>never/not/no A but B</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>A 할 때마다 B한다</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>13시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>more B than A: A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>rather than</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>13시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>lead to 동명사: 결국 ~가 되다, ~로 이끌다</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>동사원형/동명사</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>13시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Do you have time?</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>몇시니?</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>시간 있어요?</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>13시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>require</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>13시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>desire: 바라다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>13시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>highly</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>높이</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>크게, 대단히</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>14시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>주어 had 부정어 과거분사 ~ long when[before] 주어 과거동사 ~: ~하지 않아 …하고 말았다. (시간)</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>far</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>14시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>prefer A(to부정사) rather than B(to부정사, 동사원형)</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>rather than</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>14시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>a great deal of 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>14시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>The number of 복수명사 단수동사</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>단수명사</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>복수명사</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>14시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>we cherish our health only after we lose it: 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>we don’t cherish our health</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>we cherish our health</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>14시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>be likely to 동사원형</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>오히려 ~하고 싶다</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>~할 것 같다</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>14시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>be convinced of, that: ~을 확신하다</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>of, that</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>14시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>resort to</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>~에 책임이 있다, ~을 맡다</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>~에 기대다, 의지하다</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>14시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>not so much A as B: A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>14시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>no sooner had 주어 과거분사 ~ than 주어 과거동사 ~: ~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>20230117</v>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>14시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>may as well 동사원형</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>~하는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>~하는 게 더 낫다</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>20230117</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>14시 19분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E430"/>
+  <dimension ref="A1:E471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11161,14 +11161,1040 @@
           <t>~하는 게 더 낫다</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>20230117</t>
-        </is>
+      <c r="D430" t="n">
+        <v>20230117</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
           <t>14시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">최상급 수식 </t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>비교급 수식</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>it is useless to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>11시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>absolute 절대적인</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>비교급, 최상급 불가</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>11시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>late 비교급, 순서, 후반의, 후자의</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>later</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>latter</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>11시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>alive 살아 있는</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>비교급, 최상급 불가</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>11시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>not so much A as B: A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>A is no less B than C is D: A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>hope: 희망하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>it is useless to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>I love you more than he : 나는 그가 널 사랑하는 것보다 더 널 사랑한다</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>him</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>hope: 희망하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>The weather of Korea is colder than Japan : 한국의 날씨는 일본의 그것(날씨)보다 더 춥다</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>X: than Japan -&gt; than that of Japan</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>11시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>may as well 동사원형</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>~하는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>~하는 게 더 낫다</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>12시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>it is useless to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>12시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>12시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>be, become, stay, seem (보어)</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>형용사, like 명사</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>12시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>no less than</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>많아 봤자, 기껏해야</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>12시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>I cannot thank you enough: 아무리 감사해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">X </t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>O : 주어 cannot 동사원형 too … : 아무리 ~해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>He could not choose but wait: 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>to wait</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>12시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>4형식</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>목적어로 to부정사 사용</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>12시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>It will be long before 주어 현재동사 ~: 아직 ~하려면 멀었다</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>과거동사</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>현재동사</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>13시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>have no choice but to부정사
+: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>13시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>prefer A(to부정사) rather than B(to부정사, 동사원형)</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>B보다 A를 더 선호하다</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>It is not until we lose it that we cherish our health: 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>we don’t cherish our health</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>we cherish our health</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>13시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>have no choice but to부정사: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~: ~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>when[before]</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>13시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>priot (이전의)</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>비교급 : than이 아닌 to를 사용</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>13시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>be tied to 동명사: ~하는 것과 관련되다</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>13시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>13시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>it is of no use to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>13시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>dear</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>몹시</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>비싸게</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>13시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>belong to：~에 속하다</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>비교급 : than이 아닌 to를 사용</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>13시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>As it being cold outside, I boiled some water to have tea</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">X </t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>O : 독립분사구문</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>13시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>lead 목적어 to 동사원형/동명사: ~가 … 하도록 이끌다</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>동사원형/동명사</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>13시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>desire: 바라다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>13시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>13시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>do nothing but 동사원형</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>~하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>오로지 ~하기만 하다</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>13시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>every 단수명사: 모든 ~ (명사구)</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>복수명사</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>단수명사</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>13시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>appreciate: 감사하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>20230118</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>it is no use 동명사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>20230118</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E471"/>
+  <dimension ref="A1:E532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12187,14 +12187,1542 @@
           <t>동명사</t>
         </is>
       </c>
-      <c r="D471" t="inlineStr">
-        <is>
-          <t>20230118</t>
-        </is>
+      <c r="D471" t="n">
+        <v>20230118</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
           <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>He is more polite than shy
+: 그는 숫기 없는 쪽이라기보다는 예의 바른 쪽에 더 가깝다</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>둘 다 가능</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>more polite</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>13시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>I did not invite all of them
+: 나는 그들 모두를 초대한 것이 아니었다 (부분 부정)</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>any</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>13시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>it is useless to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>13시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>He is taller than any other person
+: 그는 세상에서 키가 가장 크다</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>13시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>He doesn't swim, neither does she
+: 그는 수영을 하지 않고, 그녀도 하지 않는다</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>X: neither -&gt; and neither, neither는 접속사가 아니다</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>13시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>no less than</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>주어 had 부정어 과거분사 ~ far[long] when[before] 주어 과거동사 ~: ~하지 않아 …하고 말았다.</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>before</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>when[before]</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>It will be long before 주어 현재동사 ~: 아직 ~하려면 멀었다</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>과거동사</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>현재동사</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>13시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>consider: 고려하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>13시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>know better than to 동사원형 : ~할 만큼 어리석지 않다</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>13시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>be worthwhile 동명사/to부정사</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>동명사/to부정사</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>13시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>A is no more B than C is D: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>13시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>resist: 반대하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>13시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>주어 had no sooner 과거분사 ~ than 주어 과거동사 ~: ~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>had 주어</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>주어 had</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>13시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>I love you more than him : 나는 내가 그를 사랑하는 것보다 더 널 사랑한다</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>he</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>him</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>13시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>He was not so much a statesman as a scholar: 그는 정치인보다는 학자에 가까웠다</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>rather than</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>13시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>more B than A</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>13시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>be suspensive</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>~하는 데 어려움을 겪다</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>불안하다, 확실하지 않다</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>13시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>He is no taller than she is: 그는 그녀만큼 키가 크지 않다</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">그녀는 키가 크지만 그는 키가 작다 </t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>둘다 키가 작다 : no -&gt; 너도 그래, not -&gt; 나만 그래</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>13시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>a great deal of 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>가산명사, 불가산명사</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>13시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>compromise</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>약속하다</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>타협하다</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>14시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>I may[might] as well going to the store now</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O </t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>X : going -&gt; go</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>14시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>He doesn't swim, neither does she
+: 그는 수영을 하지 않고, 그녀도 하지 않는다</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>X: neither -&gt; and neither, neither는 접속사가 아니다</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>He is more polite than shy
+: 그는 숫기 없는 쪽이라기보다는 예의 바른 쪽에 더 가깝다</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>polite more</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>more polite</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>14시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>it is useless to부정사 : ~해도 소용 없다</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>14시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>A is no more B than C is D: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>14시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>He is taller than (all) the other people
+: 그는 세상에서 키가 가장 크다</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>14시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>He is no taller than she is: 그는 그녀만큼 키가 크지 않다</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">그녀는 키가 크지만 그는 키가 작다 </t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>둘다 키가 작다 : no -&gt; 너도 그래, not -&gt; 나만 그래</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>14시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>primary 제1의</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>비교급, 최상급 불가</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>14시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>be the last man to 동사원형: ~할 사람이 아니다</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>14시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>would[should] like to부정사</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr"/>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>14시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>be cut out to 동사원형</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>~하는 것에 공헌하다</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>~에 적임이다</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>14시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>like: 좋아하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>be apt to 동사원형: ~하는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>subject A to 동명사: A가 ~하도록 복종시키다</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>14시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>be exoected to 동사원형</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>propose: 작정이다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>A is no less B than C is D: A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>rather than</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>postpone: 연기하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>사역동사 (목적격보어) ; have</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>동명사 X, 동사원형 O, to 동사원형 X, 과거분사(수동태) O</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>동명사 O, 동사원형 O, to 동사원형 X, 과거분사(수동태)O</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>14시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>must have p.p</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>~했어야만 했다</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>~했었음에 틀림없다</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>make a slip of the tongue</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>기억이 날 듯 말듯하다</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>말실수하다</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>15시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>A number of 복수명사 복수동사</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>단수명사</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>복수명사</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>15시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>can do no other than 동사원형</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>…가 하는 것은 ~뿐이다</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>15시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>When we meet, we always quarrel: 우리는 만나기만 하면 싸운다</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Whenever</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>When</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>admit</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>not so much A as B: A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>order: 지시하다</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>4형식</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>15시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>be committed to: ~에 전념하다</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>of, that</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>15시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>intend: 의도하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>cannot help 동명사 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>no more than: ~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>at most</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>object to 동명사: ~을 반대하다</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>15시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>by</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>~함으로써</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>~만큼, ~ 옆에, ~에 의해, ~로써</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>15시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>no less than: ~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>as many[much] as</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>15시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>It will not be long before 주어 현재동사 ~</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>아직 ~하려면 멀었다</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>조만간 ~하게 될 것이다</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>15시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>A is no less B than C is D</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>come to 동사원형: ~하게 되다</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>shortly</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>짧게</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>곧, 간략하게</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>20230119</v>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>in order to 동사원형: ~하기 위해</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>20230119</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>15시 38분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E532"/>
+  <dimension ref="A1:E616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13715,14 +13715,2110 @@
           <t>동사원형</t>
         </is>
       </c>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>20230119</t>
-        </is>
+      <c r="D532" t="n">
+        <v>20230119</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
           <t>15시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>percent 퍼센트</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>불가산명사 (물질명사) (분화복수)</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>13시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>brains 두뇌, 지성</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>가산명사 (절대복수)(항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>13시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>sound (감각동사)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, of 명사</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, as if/as though/like 절</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>13시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>taste (감각동사)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, as if/as though/like 절</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, of 명사</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>13시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>traveling 여행</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>불가산명사 (항 단순집합명사)</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>13시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>day 일</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>13시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>wealth 부</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>불가산명사 (물질명사) (분화복수)</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>13시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>sheep 양</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>불가산명사 (항 단순집합명사)</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>13시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>put ___ ___ ~에 숙박하다</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>up at</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>13시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>wait [   ], ~을 기다리다</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>13시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>job 직업</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>불가산명사 (물질명사) (분화복수)</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>13시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>pollution 오염, 공해</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>불가산명사 (항 단순집합명사)</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>13시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>amount [   ], ~에 달하다</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>13시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>convince A [   ] ~ : A에게 ~을 확신시키다.</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>13시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>baggage 수하물</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>불가산명사 (물질명사) (분화복수)</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>불가산명사 (항 단순집합명사)</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>13시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>dream [   ], ~을 꿈꾸다</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>13시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>be at home in</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>늦지 않게</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>~에 정통하다</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>13시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>compare A [   ] B : A와 B를 비교하다.</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>13시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>relieve A [   ] B : A에게서 B를 없애주다.</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>13시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>at odds</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>기가 죽어, 맥없이</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>다투어, 불화하여</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>13시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>source 근원, 출처</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>불가산명사 (항 단순집합명사)</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>13시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>crowd 군중</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>가산명사 (집합명사)</t>
+        </is>
+      </c>
+      <c r="D554" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>13시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>go/run/fall (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>형용사, to부정사</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D555" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>13시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>stay (ramain 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>명사, 형용사, 분사</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>형용사, 분사</t>
+        </is>
+      </c>
+      <c r="D556" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>13시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>put ___ ___ ~을 신청하다, 지원하다</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>in for</t>
+        </is>
+      </c>
+      <c r="D557" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>13시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>belongings 소유물</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>가산명사 (집합명사)</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>가산명사 (절대복수)(항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D558" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>13시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>relation 관계</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>13시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>produce 농산물</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>불가산명사 (물질명사) (분화복수)</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>불가산명사 (항 단순집합명사)</t>
+        </is>
+      </c>
+      <c r="D560" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>13시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>turn out (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>13시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>at all times</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>전 세계</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>늘, 언제나</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>13시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>weaponry 무기류</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>불가산명사 (물질명사)</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>불가산명사 (항 단순집합명사)</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>13시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>billiards 당구</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>불가산명사 (물질명사)</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>가산명사 (절대복수)(항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>13시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>in a pay</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>늘, 언제나</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>하루에</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>13시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>get ___ ___ ~을 얻다, 이해하게 되다</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>rise to</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>hold of</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>13시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>interfere : 간섭하다, 개입하다</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>13시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>savings 저금</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>가산명사 (절대복수) (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>가산명사 (절대복수)(항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D568" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>13시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>furnish A [   ] B : A에게 B를 공급하다.</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>13시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>behavior 행동</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>가산명사 (집합명사)</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>13시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>people 사람들</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>가산명사 (절대복수) (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>가산명사 (cattle형)</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>13시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>means 수단</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>가산명사 (집합명사)</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>14시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>patience 인내</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr"/>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>14시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>billiards 당구</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>14시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>savings 저금</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D575" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>14시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>means 수단</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>14시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>turn (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>14시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>source 근원, 출처</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>14시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>look ___ ___ ~을 존경하다</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>up for</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="D579" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>14시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>trout 송어</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="D580" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>14시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>produce 농산물</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>불가산명사 (항상 단수(단체)로 취급)</t>
+        </is>
+      </c>
+      <c r="D581" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>14시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>belongings 소유물</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>불가산명사 (항상 복수형으로 쓰고 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D582" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>14시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>purpose 목적</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D583" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>dream [   ], ~을 꿈꾸다</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D584" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>refund 환불</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>불가산명사 (항상 복수형으로 쓰고 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D585" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>15시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>replenish A [   ] B : A에게 B를 보충하다.</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D586" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>15시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>go/run/fall (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D587" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>goods 상품</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>exercise 운동</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D589" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>play (타동사)</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>연기하다, 상연되다</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>하다</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>15시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>cards 카드 게임</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>15시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>furnish A [   ] B : A에게 B를 공급하다.</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D592" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>15시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>sheep 양</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="D593" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>15시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>valuables 귀중품</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D594" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>15시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>pass [   ], ~으로 통하다</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D595" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>sympathize [   ], ~을 동정하다</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D596" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>die : 죽다, 사망하다</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>비교급, 최상급 불가</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D597" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>15시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>cloth 천, 옷감</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>가산명사 (이중복수)</t>
+        </is>
+      </c>
+      <c r="D598" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>merchandise 상품</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>불가산명사 (항상 단수(단체)로 취급)</t>
+        </is>
+      </c>
+      <c r="D599" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>15시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>look ___ ___ ~을 존경하다</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>up for</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="D600" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>15시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>water 물</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>불가산명사 (항상 복수형으로 쓰고 단수 취급)</t>
+        </is>
+      </c>
+      <c r="D601" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>15시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>refund 환불</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D602" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>produce 농산물</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>불가산명사 (항상 단수(단체)로 취급)</t>
+        </is>
+      </c>
+      <c r="D603" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>15시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>turn (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D604" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>15시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>go/run/fall (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D605" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>15시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>baggage 수하물</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>불가산명사 (항상 단수(단체)로 취급)</t>
+        </is>
+      </c>
+      <c r="D606" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>15시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>sound (감각동사)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, of 명사</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, as if/as though/like 절</t>
+        </is>
+      </c>
+      <c r="D607" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>15시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>provide B [   ] A : B를 A에게 제공하다(t~).</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D608" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>15시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>clothing 의류</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>가산명사 (복수 형태가 2개)</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D609" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>15시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>clothing 의류</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D610" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>put ___ ___ ~에 숙박하다</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>up with</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>up at</t>
+        </is>
+      </c>
+      <c r="D611" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>16시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>take ___ ___ ~을 주목하다</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>advantage of</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>notice of</t>
+        </is>
+      </c>
+      <c r="D612" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>16시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>come (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>형용사, to부정사</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D613" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>16시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>assure A [   ] B : A에게 B를 보증하다.</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D614" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>16시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>swine 돼지</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="D615" t="n">
+        <v>20230120</v>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>16시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>valuables 귀중품</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>20230120</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>16시 20분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E616"/>
+  <dimension ref="A1:E679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15811,14 +15811,1589 @@
           <t>가산명사 (항상 복수 취급)</t>
         </is>
       </c>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>20230120</t>
-        </is>
+      <c r="D616" t="n">
+        <v>20230120</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
           <t>16시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>follow ___ ___ ~을 끝까지 하다</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="D617" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>06시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>produce 농산물</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>06시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>turn out (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>06시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>provide B [   ] A : B를 A에게 제공하다(t~).</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>06시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>patience 인내</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 형태로 반드시 the와 함께 사용되며 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>06시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>cards 카드 게임</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>06시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>seem (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>형용사, 명사, like 명사, as if/as though/like 절, to부정사</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>06시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>turn (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D624" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>06시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>relation 관계</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D625" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>06시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>contribute (타동사)</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>기여하다, 원인이 되다</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>기여하다, 기부하다</t>
+        </is>
+      </c>
+      <c r="D626" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>06시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>assure A [   ] B : A에게 B를 보증하다.</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D627" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>06시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>turn out (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>형용사, 명사, like 명사, as if/as though/like 절, to부정사</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="D628" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>07시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>at odds</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>제자리에 있지 않은, 부적절한</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>다투어, 불화하여</t>
+        </is>
+      </c>
+      <c r="D629" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>07시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>refund 환불</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D630" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>07시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>respond [   ], ~에 대답하다</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D631" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>sound (감각동사)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, of 명사</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, as if/as though/like 절</t>
+        </is>
+      </c>
+      <c r="D632" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>seem (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>형용사, 명사, like 명사, as if/as though/like 절, to부정사</t>
+        </is>
+      </c>
+      <c r="D633" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>sympathize [   ], ~을 동정하다</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D634" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>savings 저금</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D635" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>07시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>relieve A [   ] B : A에게서 B를 없애주다.</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D636" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>clothing 의류</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D637" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>07시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>contrast A [   ] B : A와 B를 대조하다.</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D638" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>07시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>come (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D639" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>07시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>follow ___ ___ ~을 끝까지 하다</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>up for</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="D640" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>07시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>amount [   ], ~에 달하다</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D641" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>convince A [   ] ~ : A에게 ~을 확신시키다.</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>that</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>make (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>out of sorts</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>기가 죽어, 맥없이</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>불쾌한, 몸이 불편한</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>thunder 천둥</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>make ___ ___ ~에게 아첨하다</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>up for</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>police 경찰</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 형태로 반드시 the와 함께 사용되며 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>darts 다트 게임</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>must have p.p</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>~했을지도 모른다</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>~했었음에 틀림없다</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>cattle 소떼</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="D650" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>07시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>staff 직원, 부원</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="D651" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>convince A [   ] B : A에게 B를 확신시키다.</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D652" t="n">
+        <v>20230123</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>07시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>at odds</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>불가능한</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>다투어, 불화하여</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>06시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>make (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D654" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>clothing 의류</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D655" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>come (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D656" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>06시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>merchandise 상품</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D657" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>get through</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>~을 겪다</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>~을 끝내다: go through ~을 겪다, 검토하다</t>
+        </is>
+      </c>
+      <c r="D658" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>savings 저금</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D659" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>sound (감각동사)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, of 명사</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, as if/as though/like 절</t>
+        </is>
+      </c>
+      <c r="D660" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>aspire</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>타통사</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>자동사: '열망하다', aspire + 전치사 + 명사, aspire to 동사원형</t>
+        </is>
+      </c>
+      <c r="D661" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>day 일</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D662" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>follow ___ ___ ~을 끝까지 하다</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="D663" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>succeed in</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>~을 계승하다</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>~에 성공하다</t>
+        </is>
+      </c>
+      <c r="D664" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>cards 카드 게임</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="D665" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>purpose 목적</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D666" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>07시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>amount [   ], ~에 달하다</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D667" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>07시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>out of sorts</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>고장난</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>불쾌한, 몸이 불편한</t>
+        </is>
+      </c>
+      <c r="D668" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>07시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>go/run/fall (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>cattle 소떼</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="D670" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>turn (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>형용사, to부정사</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D671" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>relation 관계</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>rice 쌀</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D673" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>07시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>public 대중</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="D674" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Chinese 중국인</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="D675" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>07시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>poultry 가금류</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="D676" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>price 가격</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D677" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>07시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>put ___ ___ ~을 신청하다, 지원하다</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>in for</t>
+        </is>
+      </c>
+      <c r="D678" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>08시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>shivers 오한</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>20230124</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>08시 02분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E679"/>
+  <dimension ref="A1:E719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17386,14 +17386,1011 @@
           <t>가산명사 (항상 단수 취급)</t>
         </is>
       </c>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>20230124</t>
-        </is>
+      <c r="D679" t="n">
+        <v>20230124</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
           <t>08시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>at odds</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>고장난</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>다투어, 불화하여</t>
+        </is>
+      </c>
+      <c r="D680" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>16시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>clothing 의류</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D681" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>16시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>turn out (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="D682" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>16시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>come (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>형용사, to부정사</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>16시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>seem (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>형용사, 명사, like 명사, as if/as though/like 절, to부정사</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>16시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>clergy 성직자</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 형태로 반드시 the와 함께 사용되며 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D685" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>16시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>source 근원, 출처</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>16시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D687" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>16시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>contribute (자동사)</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>기여하다, 기부하다</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>기여하다, 원인이 되다</t>
+        </is>
+      </c>
+      <c r="D688" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>16시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>nation 국가</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="D689" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>16시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>stay (ramain 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">형용사 </t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>형용사, 분사</t>
+        </is>
+      </c>
+      <c r="D690" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>16시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>appear (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D691" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>17시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>be exoected to 동사원형</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr"/>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D692" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>17시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>ink 잉크</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D693" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>17시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>A is no more B than C is D: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>more</t>
+        </is>
+      </c>
+      <c r="D694" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>17시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>penny 페니,푼돈</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 형태로 반드시 the와 함께 사용되며 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>가산명사 (복수 형태가 2개)</t>
+        </is>
+      </c>
+      <c r="D695" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>17시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>fill A [   ] B : A를 B로 채우다.</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D696" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>17시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>people 사람들</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>17시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>He is taller than (all) the other people
+: 그는 세상에서 키가 가장 크다</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="D698" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>17시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>pass [   ], ~으로 통하다</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D699" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>17시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>propose: 작정이다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D700" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>17시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>get ___ ___ ~을 얻다, 이해하게 되다</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>notice of</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>hold of</t>
+        </is>
+      </c>
+      <c r="D701" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>17시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>peasontry 소작농</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 형태로 반드시 the와 함께 사용되며 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D702" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>17시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>remain (ramain 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>형용사, to be 형용사</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>명사, 형용사, 분사</t>
+        </is>
+      </c>
+      <c r="D703" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>17시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>put ___ ___ ~에 숙박하다</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>in for</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>up at</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>17시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>lightning 번개</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>17시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>prove (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>17시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>valuables 귀중품</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>17시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>credit A [   ] B : A에게 B를 입금하다.</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D708" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>17시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>supply A [   ] B : A에게 B를 공급하다.</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>species 종</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>17시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>thunder 천둥</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>17시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>rain 비</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>17시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>toast 토스트</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>17시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>be cut out to 동사원형: ~에 적임이다</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>사역동사 (목적격보어) ; have</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>동명사 X, 동사원형 O, to 동사원형 X, 과거분사(수동태→be p.p, O) X</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>동명사 O, 동사원형 O, to 동사원형 X, 과거분사(수동태)O</t>
+        </is>
+      </c>
+      <c r="D715" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>recommend: 추천하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>may as well A(동사원형) as B(동사원형)</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>B보다는 A하겠다</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>continue: 계속하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>20230125</v>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>18시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>주어 had no sooner 과거분사 ~ than 주어 과거동사 ~: ~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>had 주어</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>주어 had</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>20230125</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>18시 01분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E719"/>
+  <dimension ref="A1:E777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18383,14 +18383,1465 @@
           <t>주어 had</t>
         </is>
       </c>
-      <c r="D719" t="inlineStr">
-        <is>
-          <t>20230125</t>
-        </is>
+      <c r="D719" t="n">
+        <v>20230125</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
           <t>18시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>source 근원, 출처</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>14시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>people 사람들</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>14시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>out of sorts</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>아픈, 제 모양이 아닌</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>불쾌한, 몸이 불편한</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>14시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>propose: 작정이다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>14시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>remain (ramain 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">형용사 </t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>명사, 형용사, 분사</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>14시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>14시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>toast 토스트</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>14시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>stay (ramain 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">형용사 </t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>형용사, 분사</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>14시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>rain 비</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>14시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>turn out (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>14시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>follow ___ ___ ~을 끝까지 하다</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>up at</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>14시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>be exoected to 동사원형</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>14시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>rice 쌀</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>14시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>recommend: 추천하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>assure A [   ] B : A에게 B를 보증하다.</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>14시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>have difficulty 동명사 : ~하는 데 어려움을 겪다</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>동명사: have difficulty (in)동명사</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>14시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>do nothing but 동사원형 : 오로지 ~하기만 하다</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D736" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>14시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>A number of 복수명사 복수동사</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>단수명사</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>복수명사</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>no less than</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>많아 봤자, 기껏해야</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>14시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>A as well as B (주어) ; 수일치</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>뒤</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>앞</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>14시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>be opposed to 동명사: ~을 반대하다</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>14시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>It will not be long before 주어 현재동사 ~: 조만간 ~하게 될 것이다</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>과거동사</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>현재동사</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>14시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>~을 찬성하다</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>~을 허가하다, ~을 좋다고 인정하다</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>14시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>nobility 귀족</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 형태로 반드시 the와 함께 사용되며 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D743" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>14시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>lately</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>늦게</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>최근에</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>14시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>we cherish our health only after we lose it: 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>we don’t cherish our health</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>we cherish our health</t>
+        </is>
+      </c>
+      <c r="D745" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>14시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>make up with: ~와 화해하다</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>up with</t>
+        </is>
+      </c>
+      <c r="D746" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>14시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>result : 발생하다, 생기다</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>비교급, 최상급 불가</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D747" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>14시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>cannot but 동사원형: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D748" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>14시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>have an objection to 동명사: ~을 반대하다</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D749" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>14시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>narrowly escape from 동명사</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>~할 만큼 어리석지 않다</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>하마터면 ~할 뻔하다</t>
+        </is>
+      </c>
+      <c r="D750" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>14시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>confuse A [   ] B : A와 B를 혼동하다.</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D751" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>take [   ], ~을 닮다</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D752" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>order: 지시하다</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>비교급, 최상급 불가</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="D753" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>14시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>clear A [   ] B : A에서 B를 치우다.</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D754" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>14시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>stay : 머무르다, 남다</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D755" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>cannot have p.p</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>~할 필요는 없었다</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>~했을 리가 없다</t>
+        </is>
+      </c>
+      <c r="D756" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>14시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>He is taller than any other person
+: 그는 세상에서 키가 가장 크다</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>people</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="D757" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>14시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>prefer A(to부정사) rather than B(to부정사, 동사원형)</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>B보다는 A하는 편이 낫다</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>B보다 A를 더 선호하다</t>
+        </is>
+      </c>
+      <c r="D758" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>in order to 동사원형: ~하기 위해</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D759" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D760" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>lead to 동명사: 결국 ~가 되다, ~로 이끌다</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D761" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>14시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>I cannot overthank you enough: 아무리 감사해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">O </t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>X : overthank -&gt; thank</t>
+        </is>
+      </c>
+      <c r="D762" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>I prefer to go jogging rather than (to) sleep inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>(to)sleep</t>
+        </is>
+      </c>
+      <c r="D763" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>14시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>cannot help 동명사: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D764" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>game 사냥감</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D765" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>15시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>hope: 희망하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="D766" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>15시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>force</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="D767" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>remember -ing</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>(미래) ~할 것을 기억하다</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>(과거)~했던 것을 기억하다</t>
+        </is>
+      </c>
+      <c r="D768" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>during the vacation</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t xml:space="preserve">three days </t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>the vacation : during + 특정한 기간, cf)for + 불특정한 기간</t>
+        </is>
+      </c>
+      <c r="D769" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>15시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>It is not until we lose it that we cherish our health: 우리는 건강을 잃기 전까지 소중히 여기지 않는다</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>we don’t cherish our health</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>we cherish our health</t>
+        </is>
+      </c>
+      <c r="D770" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>15시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>talk A out of B: A가 B 못하도록 설득하다</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>out of</t>
+        </is>
+      </c>
+      <c r="D771" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>15시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>cannot help but 동사원형: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D772" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>15시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>be on the point of 동명사</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>하마터면 ~할 뻔하다</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>막 ~하려 하다</t>
+        </is>
+      </c>
+      <c r="D773" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>15시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>a great number of 가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D774" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>15시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>irritate: ~을 짜증나게 하다</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="D775" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>15시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>take off：이륙하다</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D776" t="n">
+        <v>20230126</v>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>out of the question</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>갑자기, 예고 없이</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>불가능한</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>20230126</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>15시 16분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_복습.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E777"/>
+  <dimension ref="A1:E822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19834,14 +19834,1139 @@
           <t>불가능한</t>
         </is>
       </c>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>20230126</t>
-        </is>
+      <c r="D777" t="n">
+        <v>20230126</v>
       </c>
       <c r="E777" t="inlineStr">
         <is>
           <t>15시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>come (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D778" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>14시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>follow ___ ___ ~을 끝까지 하다</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="D779" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>14시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>at odds</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>고장난</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>다투어, 불화하여</t>
+        </is>
+      </c>
+      <c r="D780" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>amount [   ], ~에 달하다</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D781" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>propose: 작정이다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D782" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>turn out (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="D783" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>toast 토스트</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D784" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>14시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>recommend: 추천하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D785" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>14시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>seem (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>형용사, 명사, like 명사, as if/as though/like 절, to부정사</t>
+        </is>
+      </c>
+      <c r="D786" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>14시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>turn out (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>형용사, 명사, like 명사, as if/as though/like 절, to부정사</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="D787" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>15시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>remain (ramain 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>형용사, 분사</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>명사, 형용사, 분사</t>
+        </is>
+      </c>
+      <c r="D788" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>15시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>follow ___ ___ ~을 끝까지 하다</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>up at</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="D789" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>15시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>toast 토스트</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 형태로 반드시 the와 함께 사용되며 복수 취급)</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D790" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>15시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>come (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>형용사, 명사</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D791" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>15시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>have a mind to부정사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D792" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>15시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>be exoected to 동사원형</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D793" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>15시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>seem (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>형용사, 명사, like 명사, as if/as though/like 절, to부정사</t>
+        </is>
+      </c>
+      <c r="D794" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>15시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>sound (감각동사)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, as if/as though/like 절, to부정사</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, as if/as though/like 절</t>
+        </is>
+      </c>
+      <c r="D795" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>15시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>approve</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>~을 찬성하다</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>~을 허가하다, ~을 좋다고 인정하다</t>
+        </is>
+      </c>
+      <c r="D796" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>15시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>game 사냥감</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D797" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>15시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>put ___ ___ ~에 숙박하다</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>in for</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>up at</t>
+        </is>
+      </c>
+      <c r="D798" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>15시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>lightning 번개</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>15시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>prove (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>형용사, 명사, like 명사, as if/as though/like 절, to부정사</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>15시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>credit A [   ] B : A에게 B를 입금하다.</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D801" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>15시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>turn (become 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>형용사, to부정사</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D802" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>15시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>confuse A [   ] B : A와 B를 혼동하다.</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D803" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>15시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>lead to 동명사: 결국 ~가 되다, ~로 이끌다</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>동사원형/동명사</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D804" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>15시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>cattle 소떼</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>가산명사 (the 없이 단수형태로 복수취급)</t>
+        </is>
+      </c>
+      <c r="D805" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>15시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>pass [   ], ~으로 통하다</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>into</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D806" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>15시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>do nothing but 동사원형 : 오로지 ~하기만 하다</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D807" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>15시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>have difficulty 동명사 : ~하는 데 어려움을 겪다</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>동명사: have difficulty (in)동명사</t>
+        </is>
+      </c>
+      <c r="D808" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>15시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>contribute (자동사)</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>기여하다, 기부하다</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>기여하다, 원인이 되다</t>
+        </is>
+      </c>
+      <c r="D809" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>15시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>merchandise 상품</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D810" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>15시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>cannot help 동명사: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D811" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>15시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>appear (seem 동사류)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>형용사, to부정사, that 절</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>형용사, 명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D812" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>15시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>order: 지시하다</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>목적어로 동명사 사용</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="D813" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>15시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>I prefer to go jogging rather than (to) sleep inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>(to)sleep</t>
+        </is>
+      </c>
+      <c r="D814" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>15시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>compromise</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>약속하다</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>타협하다</t>
+        </is>
+      </c>
+      <c r="D815" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>15시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>(현재) If S R(-s/-es), S will/can 동사원형</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>조동사 현재/과거 동사원형</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>will/can 동사원형</t>
+        </is>
+      </c>
+      <c r="D816" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>15시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>statistics 통계학</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 복수 형태 동일)</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="D817" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>15시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>enable</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="D818" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>15시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>What do you say to 동명사? : ~ 하는 것이 어떻습니까?</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D819" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>15시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>prefer to 동사원형 rather than to 동사원형</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D820" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>out of order</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>통제할 수 없는</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>고장난</t>
+        </is>
+      </c>
+      <c r="D821" t="n">
+        <v>20230213</v>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>16시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>be, become, stay, seem (보어)</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>형용사, like 명사</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>20230213</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
         </is>
       </c>
     </row>
